--- a/docs/Decodifiche/101_dec_genere_notifiche.xlsx
+++ b/docs/Decodifiche/101_dec_genere_notifiche.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Trascrizione</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Informativa</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -167,6 +173,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/101_dec_genere_notifiche.xlsx
+++ b/docs/Decodifiche/101_dec_genere_notifiche.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>Informativa</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>INDICE</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CHIUSURA</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>VERBALE</t>
   </si>
 </sst>
 </file>
@@ -109,7 +127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -190,6 +208,57 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
